--- a/grid.xlsx
+++ b/grid.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -93,6 +94,1496 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4069335083114602E-2"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="0.17685185185185184"/>
+          <c:w val="0.88030796150481194"/>
+          <c:h val="0.7157487605715952"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.9999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.9999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.9999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.9999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.9999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.9999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.9999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.9999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.9999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>17.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>18.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>18.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>19.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>19.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="482669424"/>
+        <c:axId val="482663936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="482669424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482663936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="482663936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482669424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>109258</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>128868</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68916</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -794,4 +2285,5008 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="15" width="3.375" customWidth="1"/>
+    <col min="17" max="17" width="6.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>8</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>SUM(F2:G2)</f>
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <f>$A2+F$1-MIN(F$1,2*$A2)</f>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:O17" si="0">$A2+G$1-MIN(G$1,2*$A2)</f>
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="1">SUM(F3:G3)</f>
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:O42" si="2">$A3+F$1-MIN(F$1,2*$A3)</f>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>7.8999999999999995</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>9.9</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0.2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>7.7999999999999989</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0.3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>9.4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999997</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>9.7000000000000011</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0.4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>9.2000000000000011</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>9.6</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0.6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999989</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>7.3999999999999995</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>0.7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>7.2999999999999989</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>9.2999999999999989</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>0.8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>7.2000000000000011</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>9.2000000000000011</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>0.9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>7.1000000000000005</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>9.1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>6.8999999999999995</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>8.8999999999999986</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1.2</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>6.7999999999999989</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>8.7999999999999989</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>1.3</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>6.7000000000000011</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>8.7000000000000011</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1.4</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>1.5</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>1.6</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>6.3999999999999995</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>1.7</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>6.2999999999999989</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>8.2999999999999989</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>1.8</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>6.2000000000000011</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>1.9</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>6.1000000000000005</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>2.1</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>7.8999999999999995</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>5.7999999999999989</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>7.7999999999999989</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>5.7000000000000011</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>2.4</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>2.5</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>2.6</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>2.5999999999999996</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>7.3999999999999995</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>2.7</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>2.7</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>5.2999999999999989</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>2.7</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>2.7</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>2.7</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>2.7</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>7.2999999999999989</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>2.7</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>2.7</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="2"/>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>2.8</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>2.8</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>5.2000000000000011</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>2.8</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>2.8</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>2.8</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>2.8</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>7.2000000000000011</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>2.8</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>2.8</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="2"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>2.9</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>2.9</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>2.9</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>2.9</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>2.9</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>7.1000000000000005</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>2.9</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>2.9</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>3.1</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>3.1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>3.1</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>3.1</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>3.1</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>6.8999999999999995</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>3.1</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>3.1</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>3.2</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>6.7999999999999989</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>3.3</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>3.3</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>4.7000000000000011</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>3.3</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>3.3</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>3.3</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>3.3</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>6.7000000000000011</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="2"/>
+        <v>3.3</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>3.3</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>3.4</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>3.4</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>3.4</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>3.4</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>3.4</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>3.4</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>3.4</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>3.5</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>3.6</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>3.6</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>3.6</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>3.6</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>3.6</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
+        <v>6.3999999999999995</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="2"/>
+        <v>3.6</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>3.6</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="2"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>3.7</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>3.7</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>4.2999999999999989</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>3.7</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>3.7</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>3.7</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>3.7</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>6.2999999999999989</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="2"/>
+        <v>3.7</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>3.7</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>3.8</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="2"/>
+        <v>6.2000000000000011</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>3.9</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>3.9</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>3.9</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>3.9</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>3.9</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="2"/>
+        <v>6.1000000000000005</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="2"/>
+        <v>3.9</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>3.9</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42:O57" si="3">$A42+F$1-MIN(F$1,2*$A42)</f>
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="3"/>
+        <v>5.9</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="3"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="3"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="3"/>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>4.2</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>4.2</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>4.2</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>4.2</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>4.2</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>4.2</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="3"/>
+        <v>5.7999999999999989</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="3"/>
+        <v>4.2</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="3"/>
+        <v>4.2</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="3"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>4.3</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>4.3</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>4.3</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>4.3</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>4.3</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>4.3</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="3"/>
+        <v>5.7000000000000011</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="3"/>
+        <v>4.3</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="3"/>
+        <v>4.3</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="3"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="3"/>
+        <v>5.6</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>4.5</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="3"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="3"/>
+        <v>5.4</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="3"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="3"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="3"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>4.7</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="3"/>
+        <v>4.7</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>4.7</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>4.7</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>4.7</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>4.7</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="3"/>
+        <v>5.2999999999999989</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="3"/>
+        <v>4.7</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="3"/>
+        <v>4.7</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="3"/>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>4.8</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="3"/>
+        <v>4.8</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="3"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>4.8</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>4.8</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>4.8</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>4.8</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="3"/>
+        <v>5.2000000000000011</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="3"/>
+        <v>4.8</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="3"/>
+        <v>4.8</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="3"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>5.2</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>10.399999999999999</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="3"/>
+        <v>5.2</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="3"/>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>5.2</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>5.2</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>5.2</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>5.2</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="3"/>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="3"/>
+        <v>5.2</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="3"/>
+        <v>5.2</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="3"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>5.3</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>10.600000000000001</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>5.3</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="3"/>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>5.3</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>5.3</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>5.3</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>5.3</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="3"/>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="3"/>
+        <v>5.3</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="3"/>
+        <v>5.3</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="3"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>5.4</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>10.8</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="3"/>
+        <v>5.4</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="3"/>
+        <v>5.4</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>5.4</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>5.4</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>5.4</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="3"/>
+        <v>5.4</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="3"/>
+        <v>5.4</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="3"/>
+        <v>5.4</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="3"/>
+        <v>5.4</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="3"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>5.5</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>5.6</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>11.2</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ref="F58:O102" si="4">$A58+F$1-MIN(F$1,2*$A58)</f>
+        <v>5.6</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="4"/>
+        <v>5.6</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="4"/>
+        <v>5.6</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="4"/>
+        <v>5.6</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="4"/>
+        <v>5.6</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
+        <v>5.6</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="4"/>
+        <v>5.6</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="4"/>
+        <v>5.6</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="4"/>
+        <v>5.6</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="4"/>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>5.7</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="4"/>
+        <v>5.7</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="4"/>
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="4"/>
+        <v>5.7</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="4"/>
+        <v>5.7</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="4"/>
+        <v>5.7</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="4"/>
+        <v>5.7</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="4"/>
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="4"/>
+        <v>5.7</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="4"/>
+        <v>5.7</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="4"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>5.8</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="4"/>
+        <v>5.8</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="4"/>
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="4"/>
+        <v>5.8</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="4"/>
+        <v>5.8</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="4"/>
+        <v>5.8</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="4"/>
+        <v>5.8</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="4"/>
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="4"/>
+        <v>5.8</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="4"/>
+        <v>5.8</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="4"/>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>5.9</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="1"/>
+        <v>11.8</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="4"/>
+        <v>5.9</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="4"/>
+        <v>5.9</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="4"/>
+        <v>5.9</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="4"/>
+        <v>5.9</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="4"/>
+        <v>5.9</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="4"/>
+        <v>5.9</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="4"/>
+        <v>5.9</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="4"/>
+        <v>5.9</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="4"/>
+        <v>5.9</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="4"/>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>6.1</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="1"/>
+        <v>12.2</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="4"/>
+        <v>6.1</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="4"/>
+        <v>6.1</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="4"/>
+        <v>6.1</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="4"/>
+        <v>6.1</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="4"/>
+        <v>6.1</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="4"/>
+        <v>6.1</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="4"/>
+        <v>6.1000000000000014</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="4"/>
+        <v>6.1</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="4"/>
+        <v>6.1</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="4"/>
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>6.2</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="1"/>
+        <v>12.399999999999999</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="4"/>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="4"/>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="4"/>
+        <v>6.2</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="4"/>
+        <v>6.2</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="4"/>
+        <v>6.2</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="4"/>
+        <v>6.2</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="4"/>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="4"/>
+        <v>6.2</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="4"/>
+        <v>6.2</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="4"/>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>6.3</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="1"/>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="4"/>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="4"/>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="4"/>
+        <v>6.3</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="4"/>
+        <v>6.3</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="4"/>
+        <v>6.3</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="4"/>
+        <v>6.3</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="4"/>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="4"/>
+        <v>6.3</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="4"/>
+        <v>6.3</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="4"/>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>6.4</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="1"/>
+        <v>12.8</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="4"/>
+        <v>6.4</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="4"/>
+        <v>6.4</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="4"/>
+        <v>6.4</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="4"/>
+        <v>6.4</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="4"/>
+        <v>6.4</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="4"/>
+        <v>6.4</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="4"/>
+        <v>6.3999999999999986</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="4"/>
+        <v>6.4</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="4"/>
+        <v>6.4</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="4"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>6.5</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B102" si="5">SUM(F67:G67)</f>
+        <v>13</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>6.6</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="5"/>
+        <v>13.2</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>6.6</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="4"/>
+        <v>6.6</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="4"/>
+        <v>6.6</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="4"/>
+        <v>6.6</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="4"/>
+        <v>6.6</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="4"/>
+        <v>6.6</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="4"/>
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="4"/>
+        <v>6.6</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="4"/>
+        <v>6.6</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="4"/>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>6.7</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="5"/>
+        <v>13.399999999999999</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="4"/>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="4"/>
+        <v>6.7</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="4"/>
+        <v>6.7</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="4"/>
+        <v>6.7</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="4"/>
+        <v>6.7</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="4"/>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="4"/>
+        <v>6.7</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="4"/>
+        <v>6.7</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="4"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>6.8</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="5"/>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="4"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="4"/>
+        <v>6.8</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="4"/>
+        <v>6.8</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="4"/>
+        <v>6.8</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="4"/>
+        <v>6.8</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="4"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="4"/>
+        <v>6.8</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="4"/>
+        <v>6.8</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="4"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>6.9</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="5"/>
+        <v>13.8</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>6.9</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="4"/>
+        <v>6.9</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="4"/>
+        <v>6.9</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="4"/>
+        <v>6.9</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="4"/>
+        <v>6.9</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="4"/>
+        <v>6.9</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="4"/>
+        <v>6.8999999999999986</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="4"/>
+        <v>6.9</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="4"/>
+        <v>6.9</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="4"/>
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>7.1</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="5"/>
+        <v>14.2</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="4"/>
+        <v>7.1</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="4"/>
+        <v>7.1</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="4"/>
+        <v>7.1</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="4"/>
+        <v>7.1</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="4"/>
+        <v>7.1</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="4"/>
+        <v>7.1</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="4"/>
+        <v>7.1000000000000014</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="4"/>
+        <v>7.1</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="4"/>
+        <v>7.1</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="4"/>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>7.2</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="5"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="4"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="4"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="4"/>
+        <v>7.2</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="4"/>
+        <v>7.2</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="4"/>
+        <v>7.2</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="4"/>
+        <v>7.2</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="4"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="4"/>
+        <v>7.2</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="4"/>
+        <v>7.2</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="4"/>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>7.3</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="5"/>
+        <v>14.600000000000001</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="4"/>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="4"/>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="4"/>
+        <v>7.3</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="4"/>
+        <v>7.3</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="4"/>
+        <v>7.3</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="4"/>
+        <v>7.3</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="4"/>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="4"/>
+        <v>7.3</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="4"/>
+        <v>7.3</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="4"/>
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>7.4</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="5"/>
+        <v>14.8</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="4"/>
+        <v>7.4</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="4"/>
+        <v>7.4</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="4"/>
+        <v>7.4</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="4"/>
+        <v>7.4</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="4"/>
+        <v>7.4</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="4"/>
+        <v>7.4</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="4"/>
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="4"/>
+        <v>7.4</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="4"/>
+        <v>7.4</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="4"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>7.5</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>7.6</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="5"/>
+        <v>15.2</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="4"/>
+        <v>7.6</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="4"/>
+        <v>7.6</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="4"/>
+        <v>7.6</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="4"/>
+        <v>7.6</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="4"/>
+        <v>7.6</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="4"/>
+        <v>7.6</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="4"/>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="4"/>
+        <v>7.6</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="4"/>
+        <v>7.6</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="4"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>7.7</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="5"/>
+        <v>15.399999999999999</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="4"/>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="4"/>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="4"/>
+        <v>7.7</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="4"/>
+        <v>7.7</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="4"/>
+        <v>7.7</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="4"/>
+        <v>7.7</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="4"/>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="4"/>
+        <v>7.7</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="4"/>
+        <v>7.7</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="4"/>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>7.8</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="5"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="4"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="4"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="4"/>
+        <v>7.8</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="4"/>
+        <v>7.8</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="4"/>
+        <v>7.8</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="4"/>
+        <v>7.8</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="4"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="4"/>
+        <v>7.8</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="4"/>
+        <v>7.8</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="4"/>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>7.9</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="5"/>
+        <v>15.8</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="4"/>
+        <v>7.9</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="4"/>
+        <v>7.9</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="4"/>
+        <v>7.9</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="4"/>
+        <v>7.9</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="4"/>
+        <v>7.9</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="4"/>
+        <v>7.9</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="4"/>
+        <v>7.8999999999999986</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="4"/>
+        <v>7.9</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="4"/>
+        <v>7.9</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="4"/>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>8.1</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="5"/>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="4"/>
+        <v>8.1</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="4"/>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="4"/>
+        <v>8.1</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="4"/>
+        <v>8.1</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="4"/>
+        <v>8.1</v>
+      </c>
+      <c r="K83">
+        <f t="shared" ref="K83:O102" si="6">$A83+K$1-MIN(K$1,2*$A83)</f>
+        <v>8.1</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="6"/>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="6"/>
+        <v>8.1</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="6"/>
+        <v>8.1</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="6"/>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="5"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ref="F84:O102" si="7">$A84+F$1-MIN(F$1,2*$A84)</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="7"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="7"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="7"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="7"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="7"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="7"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="7"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="7"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="7"/>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="5"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="7"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="7"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="7"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="7"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="7"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="7"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="7"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="7"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="7"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="7"/>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>8.4</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="5"/>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="7"/>
+        <v>8.4</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="7"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="7"/>
+        <v>8.4</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="7"/>
+        <v>8.4</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="7"/>
+        <v>8.4</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="7"/>
+        <v>8.4</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="7"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="7"/>
+        <v>8.4</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="7"/>
+        <v>8.4</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="7"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>8.5</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="7"/>
+        <v>8.5</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="7"/>
+        <v>8.5</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="7"/>
+        <v>8.5</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="7"/>
+        <v>8.5</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="7"/>
+        <v>8.5</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="7"/>
+        <v>8.5</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="7"/>
+        <v>8.5</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="7"/>
+        <v>8.5</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="7"/>
+        <v>8.5</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="7"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>8.6</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="5"/>
+        <v>17.200000000000003</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="7"/>
+        <v>8.6</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="7"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="7"/>
+        <v>8.6</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="7"/>
+        <v>8.6</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="7"/>
+        <v>8.6</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="7"/>
+        <v>8.6</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="7"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="7"/>
+        <v>8.6</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="7"/>
+        <v>8.6</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="7"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="5"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="7"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="7"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="7"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="7"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="7"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="7"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="7"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="7"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="7"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="7"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="5"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="7"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="7"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="7"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="7"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="7"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="7"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="7"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="7"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="7"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="7"/>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>8.9</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="5"/>
+        <v>17.799999999999997</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="7"/>
+        <v>8.9</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="7"/>
+        <v>8.8999999999999986</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="7"/>
+        <v>8.9</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="7"/>
+        <v>8.9</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="7"/>
+        <v>8.9</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="7"/>
+        <v>8.9</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="7"/>
+        <v>8.8999999999999986</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="7"/>
+        <v>8.9</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="7"/>
+        <v>8.9</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="7"/>
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>9</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>9.1</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="5"/>
+        <v>18.200000000000003</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="7"/>
+        <v>9.1</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="7"/>
+        <v>9.1000000000000014</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="7"/>
+        <v>9.1</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="7"/>
+        <v>9.1</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="7"/>
+        <v>9.1</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="7"/>
+        <v>9.1</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="7"/>
+        <v>9.1000000000000014</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="7"/>
+        <v>9.1</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="7"/>
+        <v>9.1</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="7"/>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="5"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="7"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="7"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="7"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="7"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="7"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="7"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="7"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="7"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="7"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="7"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="5"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="7"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="7"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="7"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="7"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="7"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="7"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="7"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="7"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="7"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="7"/>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>9.4</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="5"/>
+        <v>18.799999999999997</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="7"/>
+        <v>9.4</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="7"/>
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="7"/>
+        <v>9.4</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="7"/>
+        <v>9.4</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="7"/>
+        <v>9.4</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="7"/>
+        <v>9.4</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="7"/>
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="7"/>
+        <v>9.4</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="7"/>
+        <v>9.4</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="7"/>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>9.5</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="7"/>
+        <v>9.5</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="7"/>
+        <v>9.5</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="7"/>
+        <v>9.5</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="7"/>
+        <v>9.5</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="7"/>
+        <v>9.5</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="7"/>
+        <v>9.5</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="7"/>
+        <v>9.5</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="7"/>
+        <v>9.5</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="7"/>
+        <v>9.5</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="7"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>9.6</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="5"/>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="7"/>
+        <v>9.6</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="7"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="7"/>
+        <v>9.6</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="7"/>
+        <v>9.6</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="7"/>
+        <v>9.6</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="7"/>
+        <v>9.6</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="7"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="7"/>
+        <v>9.6</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="7"/>
+        <v>9.6</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="7"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="5"/>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="7"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="7"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="7"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="7"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="7"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="7"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="7"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="7"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="7"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="7"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="5"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="7"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="7"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="7"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="7"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="7"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="7"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="7"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="7"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="7"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="7"/>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>9.9</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="5"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="7"/>
+        <v>9.9</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="7"/>
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="7"/>
+        <v>9.9</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="7"/>
+        <v>9.9</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="7"/>
+        <v>9.9</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="7"/>
+        <v>9.9</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="7"/>
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="7"/>
+        <v>9.9</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="7"/>
+        <v>9.9</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="7"/>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>10</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>